--- a/results/I3_N5_M2_T15_C150_DepCentral_s0_P2_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1840.387257467945</v>
+        <v>342.3977085871632</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.25725746793465</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.261425558350808</v>
+        <v>0.8372574275573794</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.261425558350808</v>
+        <v>0.8372574275573794</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1477.980000000011</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.15</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.276726247163714</v>
+        <v>7.091900992101005</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.16307414718502</v>
+        <v>10.97824889212231</v>
       </c>
     </row>
     <row r="5">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.50084224470813</v>
+        <v>14.16274257244262</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>14.49989205841819</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.49989205841819</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1026,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1040,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1054,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1068,29 +1057,15 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>125.5050000000004</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>131.3400000000004</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4650000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>137.05</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1248,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>236.9050000000012</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>253.4050000000013</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>251.1800000000013</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>262.2600000000012</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>257.8800000000012</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>203.335</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>183.955</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>202.29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>188.46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1347,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>199.3199999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36499999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.53999999999999</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1413,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999979</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
@@ -1446,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -1457,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>236.9050000000012</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -1479,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>253.4050000000013</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>251.1800000000013</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>262.2600000000012</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1512,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>257.8800000000012</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -1523,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>203.335</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1534,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>183.955</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>202.29</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40">
@@ -1556,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>188.46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41">
@@ -1567,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.3199999999993</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>86.90500000000122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>103.4050000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>101.1800000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1647,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>112.2600000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>107.8800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1669,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>53.33500000000001</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>33.95500000000001</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>52.28999999999999</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>38.46000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.31999999999934</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1771,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1782,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1793,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1804,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1925,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1936,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1947,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1958,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1969,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1980,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1991,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2002,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2013,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2024,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2065,7 +2040,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2076,7 +2051,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2087,7 +2062,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2098,7 +2073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2109,67 +2084,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
